--- a/second-order/1875/February1875.xlsx
+++ b/second-order/1875/February1875.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1875/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\expnaspre\library_archive$\ARCHIVE\Data\Second Order Books - KEYING\1875\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974919D5-311B-014E-9936-7D3702390255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2462" documentId="13_ncr:1_{A25852BA-AB9C-4288-B86E-CD8ED2E4D80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86DC2FAF-E9FB-4677-99CE-2F91D0466EBD}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="29040" windowHeight="11460" activeTab="5" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Hawes" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="62">
   <si>
     <t>Barometer</t>
   </si>
@@ -167,9 +169,6 @@
     <t>Buxton</t>
   </si>
   <si>
-    <t>/238</t>
-  </si>
-  <si>
     <t>NNE</t>
   </si>
   <si>
@@ -200,9 +199,6 @@
     <t>4-6</t>
   </si>
   <si>
-    <t>Note.- Till the 10th the Min.and Max.were read at 9 a.m., from th 11th onward at 9 p.m.</t>
-  </si>
-  <si>
     <t>Carmarthen</t>
   </si>
   <si>
@@ -227,9 +223,6 @@
     <t>Markree Castle</t>
   </si>
   <si>
-    <t>32.933.1</t>
-  </si>
-  <si>
     <t>0-5</t>
   </si>
   <si>
@@ -243,10 +236,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -411,11 +405,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,15 +523,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,9 +547,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,6 +563,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -834,60 +901,60 @@
   <dimension ref="A2:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="B27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
       <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -952,7 +1019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1084,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +1149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1147,7 +1214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1212,7 +1279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1277,7 +1344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1342,7 +1409,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1407,7 +1474,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1472,7 +1539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1537,7 +1604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1578,7 +1645,7 @@
         <v>63</v>
       </c>
       <c r="N13" s="6">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>24</v>
@@ -1602,7 +1669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1663,11 +1730,11 @@
       <c r="T14" s="1">
         <v>10</v>
       </c>
-      <c r="U14" s="21">
+      <c r="U14" s="18">
         <v>0.27</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1732,7 +1799,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1797,7 +1864,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1862,7 +1929,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1927,7 +1994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1992,7 +2059,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2057,7 +2124,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2122,7 +2189,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2187,7 +2254,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2252,7 +2319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2317,7 +2384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2382,7 +2449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2447,7 +2514,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2512,7 +2579,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2577,7 +2644,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2642,7 +2709,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2707,7 +2774,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2772,56 +2839,62 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="30">
         <v>30.114000000000001</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="31">
         <v>30.105</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="32">
         <v>33.299999999999997</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="32">
         <v>33.1</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="32">
         <v>30.4</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="31">
         <v>37.799999999999997</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="32">
         <v>0.16300000000000001</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="31">
         <v>0.16600000000000001</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="32">
         <v>82.8</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="32">
         <v>86.4</v>
       </c>
-      <c r="P32" s="1">
+      <c r="O32" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="34">
         <v>0.6</v>
       </c>
-      <c r="R32" s="6">
+      <c r="Q32" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="34">
         <v>0.9</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="32">
         <v>9.1999999999999993</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T32" s="32">
         <v>7.5</v>
       </c>
-      <c r="U32" s="27">
+      <c r="U32" s="33">
         <v>1.39</v>
       </c>
     </row>
@@ -2846,58 +2919,58 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomLeft" activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2962,7 +3035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -3027,7 +3100,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -3092,7 +3165,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -3157,7 +3230,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
@@ -3222,7 +3295,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
@@ -3287,7 +3360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -3352,7 +3425,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -3417,7 +3490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -3449,7 +3522,7 @@
         <v>32.700000000000003</v>
       </c>
       <c r="K11" s="1">
-        <v>38.299999999999997</v>
+        <v>0.129</v>
       </c>
       <c r="L11" s="6">
         <v>0.11700000000000001</v>
@@ -3482,7 +3555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -3547,7 +3620,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -3612,7 +3685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -3677,7 +3750,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -3742,7 +3815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -3807,7 +3880,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -3872,7 +3945,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -3937,7 +4010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -3966,7 +4039,7 @@
         <v>31.3</v>
       </c>
       <c r="J19" s="6">
-        <v>454</v>
+        <v>45</v>
       </c>
       <c r="K19" s="1">
         <v>0.185</v>
@@ -3984,7 +4057,7 @@
         <v>22</v>
       </c>
       <c r="P19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>28</v>
@@ -4002,7 +4075,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -4067,7 +4140,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -4132,7 +4205,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -4197,7 +4270,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -4262,7 +4335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -4327,7 +4400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -4392,7 +4465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -4457,7 +4530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -4522,7 +4595,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
@@ -4587,7 +4660,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
@@ -4652,7 +4725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -4717,7 +4790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
@@ -4782,7 +4855,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4819,11 +4892,15 @@
       <c r="N32" s="12">
         <v>87.4</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="P32" s="11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q32" s="11"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="R32" s="12">
         <v>2.2999999999999998</v>
       </c>
@@ -4857,59 +4934,59 @@
   <dimension ref="A2:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <pane ySplit="3" topLeftCell="I24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -4974,7 +5051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -5039,7 +5116,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -5104,7 +5181,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
@@ -5169,7 +5246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -5234,7 +5311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -5299,7 +5376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
@@ -5364,7 +5441,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -5429,7 +5506,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -5494,7 +5571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -5559,7 +5636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -5624,7 +5701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -5689,7 +5766,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
@@ -5703,7 +5780,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="5">
-        <v>28.870999999999999</v>
+        <v>29.870999999999999</v>
       </c>
       <c r="F15" s="6">
         <v>30.004999999999999</v>
@@ -5754,7 +5831,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
@@ -5819,7 +5896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -5884,7 +5961,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
@@ -5949,7 +6026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
@@ -5983,8 +6060,8 @@
       <c r="K19" s="1">
         <v>0.192</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>41</v>
+      <c r="L19" s="6">
+        <v>0.23400000000000001</v>
       </c>
       <c r="M19" s="1">
         <v>87</v>
@@ -6014,7 +6091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
@@ -6058,7 +6135,7 @@
         <v>89</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P20" s="1">
         <v>7</v>
@@ -6079,7 +6156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -6144,7 +6221,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -6188,7 +6265,7 @@
         <v>98</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P22" s="1">
         <v>5</v>
@@ -6209,7 +6286,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -6274,7 +6351,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
@@ -6339,7 +6416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
@@ -6404,7 +6481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -6469,7 +6546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
@@ -6534,7 +6611,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
@@ -6599,7 +6676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -6664,7 +6741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -6729,7 +6806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -6794,7 +6871,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6817,7 +6894,7 @@
         <v>27.9</v>
       </c>
       <c r="J32" s="12">
-        <v>27.9</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="K32" s="10">
         <v>0.17699999999999999</v>
@@ -6831,11 +6908,15 @@
       <c r="N32" s="12">
         <v>95.6</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="P32" s="11">
         <v>3.9</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="R32" s="12">
         <v>3.4</v>
       </c>
@@ -6866,62 +6947,62 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED182907-3967-4840-BF65-EDCDC4C0836B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:U33"/>
+  <dimension ref="A2:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U32" sqref="U32"/>
+      <pane ySplit="3" topLeftCell="D30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -6986,9 +7067,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -7039,21 +7120,21 @@
         <v>22</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S4" s="1">
         <v>10</v>
       </c>
       <c r="T4" s="1">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="U4" s="9">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -7104,7 +7185,7 @@
         <v>27</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S5" s="1">
         <v>10</v>
@@ -7116,9 +7197,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -7163,7 +7244,7 @@
         <v>27</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>35</v>
@@ -7181,9 +7262,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -7234,7 +7315,7 @@
         <v>35</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -7246,9 +7327,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -7293,13 +7374,13 @@
         <v>35</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S8" s="1">
         <v>10</v>
@@ -7311,9 +7392,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -7358,7 +7439,7 @@
         <v>21</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>25</v>
@@ -7376,9 +7457,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -7441,9 +7522,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -7494,7 +7575,7 @@
         <v>26</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S11" s="1">
         <v>10</v>
@@ -7506,9 +7587,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -7571,9 +7652,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -7636,9 +7717,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -7689,7 +7770,7 @@
         <v>38</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S14" s="1">
         <v>10</v>
@@ -7701,9 +7782,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -7748,13 +7829,13 @@
         <v>33</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S15" s="1">
         <v>10</v>
@@ -7766,9 +7847,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -7813,7 +7894,7 @@
         <v>38</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>32</v>
@@ -7831,9 +7912,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -7884,7 +7965,7 @@
         <v>27</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S17" s="1">
         <v>10</v>
@@ -7896,9 +7977,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -7961,9 +8042,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -8008,7 +8089,7 @@
         <v>35</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>27</v>
@@ -8026,9 +8107,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -8076,10 +8157,10 @@
         <v>2</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S20" s="1">
         <v>10</v>
@@ -8091,9 +8172,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -8135,13 +8216,13 @@
         <v>93</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P21" s="1">
         <v>3</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R21" s="6">
         <v>1</v>
@@ -8156,9 +8237,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -8200,13 +8281,13 @@
         <v>100</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P22" s="1">
         <v>4</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R22" s="6">
         <v>3</v>
@@ -8221,9 +8302,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -8265,13 +8346,13 @@
         <v>95</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R23" s="6">
         <v>3</v>
@@ -8286,9 +8367,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -8333,10 +8414,10 @@
         <v>29</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R24" s="6">
         <v>4</v>
@@ -8351,9 +8432,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -8395,7 +8476,7 @@
         <v>73</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P25" s="1">
         <v>4</v>
@@ -8404,7 +8485,7 @@
         <v>29</v>
       </c>
       <c r="R25" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S25" s="1">
         <v>9</v>
@@ -8416,9 +8497,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -8463,7 +8544,7 @@
         <v>29</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>29</v>
@@ -8481,9 +8562,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -8525,7 +8606,7 @@
         <v>100</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="1">
         <v>2</v>
@@ -8546,9 +8627,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -8590,16 +8671,16 @@
         <v>98</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S28" s="1">
         <v>10</v>
@@ -8611,9 +8692,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -8676,9 +8757,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -8723,7 +8804,7 @@
         <v>29</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>29</v>
@@ -8741,9 +8822,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -8785,10 +8866,10 @@
         <v>84</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>29</v>
@@ -8806,7 +8887,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -8857,13 +8938,8 @@
       <c r="T32" s="12">
         <v>8.1</v>
       </c>
-      <c r="U32" s="26">
+      <c r="U32" s="23">
         <v>1.2</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -8886,59 +8962,59 @@
   <dimension ref="A2:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U32" sqref="U32"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9003,9 +9079,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -9068,9 +9144,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -9133,9 +9209,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -9198,9 +9274,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -9263,9 +9339,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -9328,9 +9404,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -9393,9 +9469,9 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -9458,9 +9534,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -9523,9 +9599,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -9588,9 +9664,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -9653,9 +9729,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -9718,9 +9794,9 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -9783,9 +9859,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -9848,9 +9924,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -9913,9 +9989,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -9978,9 +10054,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -10043,9 +10119,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -10108,9 +10184,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -10173,9 +10249,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -10238,9 +10314,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -10303,9 +10379,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -10368,9 +10444,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -10433,9 +10509,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -10498,9 +10574,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -10560,12 +10636,12 @@
         <v>10</v>
       </c>
       <c r="U27" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -10628,9 +10704,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -10642,7 +10718,7 @@
         <v>26</v>
       </c>
       <c r="E29" s="5">
-        <v>20.404</v>
+        <v>29.404</v>
       </c>
       <c r="F29" s="6">
         <v>29.388000000000002</v>
@@ -10693,9 +10769,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -10758,9 +10834,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -10823,7 +10899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -10860,11 +10936,15 @@
       <c r="N32" s="12">
         <v>89.5</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="P32" s="11">
         <v>1.2</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="R32" s="12">
         <v>1.3</v>
       </c>
@@ -10874,7 +10954,7 @@
       <c r="T32" s="12">
         <v>7.5</v>
       </c>
-      <c r="U32" s="26">
+      <c r="U32" s="23">
         <v>2.52</v>
       </c>
     </row>
@@ -10897,60 +10977,60 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33:F33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="K22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -11015,9 +11095,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -11080,9 +11160,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -11130,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R5" s="6">
         <v>1</v>
@@ -11145,9 +11225,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -11210,9 +11290,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -11275,9 +11355,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -11328,7 +11408,7 @@
         <v>36</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S8" s="1">
         <v>10</v>
@@ -11340,9 +11420,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -11387,13 +11467,13 @@
         <v>36</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S9" s="1">
         <v>10</v>
@@ -11405,9 +11485,9 @@
         <v>0.627</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -11452,13 +11532,13 @@
         <v>39</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S10" s="1">
         <v>10</v>
@@ -11470,9 +11550,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -11486,7 +11566,7 @@
       <c r="E11" s="5">
         <v>30.242000000000001</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="35">
         <v>30.257000000000001</v>
       </c>
       <c r="G11" s="1">
@@ -11517,7 +11597,7 @@
         <v>36</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>39</v>
@@ -11535,9 +11615,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -11588,7 +11668,7 @@
         <v>28</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S12" s="1">
         <v>9</v>
@@ -11600,9 +11680,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -11665,9 +11745,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -11712,7 +11792,7 @@
         <v>38</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>21</v>
@@ -11730,9 +11810,9 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -11783,7 +11863,7 @@
         <v>22</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S15" s="1">
         <v>10</v>
@@ -11795,9 +11875,9 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -11839,16 +11919,16 @@
         <v>100</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S16" s="1">
         <v>10</v>
@@ -11860,9 +11940,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -11925,9 +12005,9 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -11990,9 +12070,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -12037,7 +12117,7 @@
         <v>28</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>28</v>
@@ -12055,9 +12135,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -12120,9 +12200,9 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -12173,7 +12253,7 @@
         <v>28</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S21" s="1">
         <v>9</v>
@@ -12185,9 +12265,9 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -12241,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="1">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -12250,9 +12330,9 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -12303,7 +12383,7 @@
         <v>28</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S23" s="1">
         <v>10</v>
@@ -12315,9 +12395,9 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -12365,7 +12445,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R24" s="6">
         <v>1</v>
@@ -12380,9 +12460,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -12426,14 +12506,14 @@
       <c r="O25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P25" s="17">
-        <v>43862</v>
+      <c r="P25" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R25" s="18">
-        <v>43862</v>
+      <c r="R25" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
@@ -12445,9 +12525,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -12510,9 +12590,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -12557,7 +12637,7 @@
         <v>39</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>24</v>
@@ -12575,9 +12655,9 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -12622,7 +12702,7 @@
         <v>36</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>28</v>
@@ -12640,9 +12720,9 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -12705,9 +12785,9 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -12770,9 +12850,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -12835,7 +12915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -12872,11 +12952,15 @@
       <c r="N32" s="12">
         <v>91.1</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="P32" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="R32" s="12">
         <v>0.8</v>
       </c>
@@ -12910,59 +12994,59 @@
   <dimension ref="A2:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U32" sqref="U32"/>
+      <pane ySplit="3" topLeftCell="J22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -13027,9 +13111,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -13092,9 +13176,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -13118,7 +13202,7 @@
         <v>39</v>
       </c>
       <c r="I5" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" s="6">
         <v>47.8</v>
@@ -13157,9 +13241,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -13222,9 +13306,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -13287,9 +13371,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -13352,9 +13436,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -13417,9 +13501,9 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -13482,9 +13566,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -13547,9 +13631,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -13612,9 +13696,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -13677,9 +13761,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -13738,13 +13822,13 @@
       <c r="T14" s="1">
         <v>10</v>
       </c>
-      <c r="U14" s="21">
+      <c r="U14" s="18">
         <v>1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -13807,9 +13891,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -13872,9 +13956,9 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -13937,9 +14021,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -14002,9 +14086,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -14067,9 +14151,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -14132,9 +14216,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -14197,9 +14281,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -14262,9 +14346,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -14327,9 +14411,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -14386,15 +14470,15 @@
         <v>10</v>
       </c>
       <c r="T24" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U24" s="9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -14457,9 +14541,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -14522,9 +14606,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -14587,9 +14671,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -14652,9 +14736,9 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -14717,9 +14801,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -14782,9 +14866,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -14841,64 +14925,68 @@
         <v>10</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U31" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="19">
         <v>30.126000000000001</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="20">
         <v>30.097000000000001</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="21">
         <v>34</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="19">
         <v>33.4</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="19">
         <v>30</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="20">
         <v>40.299999999999997</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="21">
         <v>0.19</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="20">
         <v>0.186</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="21">
         <v>94.2</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="20">
         <v>94.2</v>
       </c>
-      <c r="O32" s="24"/>
-      <c r="P32" s="22">
+      <c r="O32" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="19">
         <v>2.7</v>
       </c>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="23">
+      <c r="Q32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="20">
         <v>3</v>
       </c>
-      <c r="S32" s="24">
+      <c r="S32" s="21">
         <v>8.4</v>
       </c>
-      <c r="T32" s="23">
+      <c r="T32" s="20">
         <v>7.6</v>
       </c>
-      <c r="U32" s="25">
+      <c r="U32" s="22">
         <v>4.71</v>
       </c>
     </row>
@@ -14922,59 +15010,59 @@
   <dimension ref="A2:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
+      <pane ySplit="3" topLeftCell="L22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -15039,9 +15127,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -15104,9 +15192,9 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -15169,9 +15257,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -15234,9 +15322,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -15299,9 +15387,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -15364,9 +15452,9 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -15429,9 +15517,9 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -15494,9 +15582,9 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -15559,9 +15647,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -15624,9 +15712,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -15689,9 +15777,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -15754,9 +15842,9 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -15819,9 +15907,9 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -15884,9 +15972,9 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -15949,9 +16037,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -16014,9 +16102,9 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -16079,9 +16167,9 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -16144,9 +16232,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -16209,9 +16297,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -16274,9 +16362,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -16339,9 +16427,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -16404,9 +16492,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -16469,9 +16557,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -16534,9 +16622,9 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -16578,13 +16666,13 @@
         <v>92</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="1">
         <v>5</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R27" s="6">
         <v>6</v>
@@ -16596,12 +16684,12 @@
         <v>10</v>
       </c>
       <c r="U27" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -16664,9 +16752,9 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -16729,9 +16817,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -16743,10 +16831,10 @@
         <v>27</v>
       </c>
       <c r="E30" s="5">
-        <v>20.727</v>
+        <v>29.727</v>
       </c>
       <c r="F30" s="6">
-        <v>20.9</v>
+        <v>29.9</v>
       </c>
       <c r="G30" s="1">
         <v>35.9</v>
@@ -16794,9 +16882,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -16816,8 +16904,8 @@
       <c r="G31" s="1">
         <v>34.1</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>61</v>
+      <c r="H31" s="1">
+        <v>33.1</v>
       </c>
       <c r="I31" s="1">
         <v>32.9</v>
@@ -16847,7 +16935,7 @@
         <v>28</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S31" s="1">
         <v>10</v>
@@ -16859,7 +16947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -16896,11 +16984,15 @@
       <c r="N32" s="12">
         <v>89.4</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="P32" s="11">
         <v>2.1</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="R32" s="12">
         <v>2.2000000000000002</v>
       </c>
@@ -16933,60 +17025,60 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="I26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -17051,9 +17143,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1">
         <v>1875</v>
@@ -17116,9 +17208,9 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
         <v>1875</v>
@@ -17181,9 +17273,9 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1">
         <v>1875</v>
@@ -17246,9 +17338,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
         <v>1875</v>
@@ -17299,7 +17391,7 @@
         <v>36</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S7" s="1">
         <v>10</v>
@@ -17311,9 +17403,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1">
         <v>1875</v>
@@ -17358,13 +17450,13 @@
         <v>36</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S8" s="1">
         <v>10</v>
@@ -17376,9 +17468,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1">
         <v>1875</v>
@@ -17441,9 +17533,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1">
         <v>1875</v>
@@ -17506,9 +17598,9 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1">
         <v>1875</v>
@@ -17559,7 +17651,7 @@
         <v>26</v>
       </c>
       <c r="R11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S11" s="1">
         <v>3</v>
@@ -17571,9 +17663,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1">
         <v>1875</v>
@@ -17636,9 +17728,9 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1">
         <v>1875</v>
@@ -17689,7 +17781,7 @@
         <v>36</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S13" s="1">
         <v>2</v>
@@ -17701,9 +17793,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1">
         <v>1875</v>
@@ -17766,9 +17858,9 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1">
         <v>1875</v>
@@ -17819,7 +17911,7 @@
         <v>22</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S15" s="1">
         <v>10</v>
@@ -17831,9 +17923,9 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1">
         <v>1875</v>
@@ -17896,9 +17988,9 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1">
         <v>1875</v>
@@ -17961,9 +18053,9 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1">
         <v>1875</v>
@@ -18026,9 +18118,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1">
         <v>1875</v>
@@ -18091,9 +18183,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1">
         <v>1875</v>
@@ -18156,9 +18248,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1">
         <v>1875</v>
@@ -18221,9 +18313,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1">
         <v>1875</v>
@@ -18286,9 +18378,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1">
         <v>1875</v>
@@ -18339,7 +18431,7 @@
         <v>39</v>
       </c>
       <c r="R23" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S23" s="1">
         <v>10</v>
@@ -18348,12 +18440,12 @@
         <v>10</v>
       </c>
       <c r="U23" s="8">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1">
         <v>1875</v>
@@ -18401,7 +18493,7 @@
         <v>0.5</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R24" s="6">
         <v>1</v>
@@ -18416,9 +18508,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1">
         <v>1875</v>
@@ -18460,13 +18552,13 @@
         <v>92</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P25" s="1">
         <v>0.5</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R25" s="6">
         <v>0.54</v>
@@ -18481,9 +18573,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
         <v>1875</v>
@@ -18534,7 +18626,7 @@
         <v>28</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S26" s="1">
         <v>6</v>
@@ -18546,9 +18638,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1">
         <v>1875</v>
@@ -18569,7 +18661,7 @@
         <v>29</v>
       </c>
       <c r="H27" s="1">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="I27" s="1">
         <v>26</v>
@@ -18590,16 +18682,16 @@
         <v>80</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S27" s="1">
         <v>6</v>
@@ -18611,9 +18703,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1">
         <v>1875</v>
@@ -18628,7 +18720,7 @@
         <v>29.497</v>
       </c>
       <c r="F28" s="6">
-        <v>20.498999999999999</v>
+        <v>29.498999999999999</v>
       </c>
       <c r="G28" s="1">
         <v>33.700000000000003</v>
@@ -18661,10 +18753,10 @@
         <v>1</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S28" s="1">
         <v>10</v>
@@ -18676,9 +18768,9 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1">
         <v>1875</v>
@@ -18720,7 +18812,7 @@
         <v>93</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" s="1">
         <v>1</v>
@@ -18729,7 +18821,7 @@
         <v>29</v>
       </c>
       <c r="R29" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S29" s="1">
         <v>10</v>
@@ -18741,9 +18833,9 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1">
         <v>1875</v>
@@ -18788,7 +18880,7 @@
         <v>25</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>39</v>
@@ -18806,9 +18898,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1">
         <v>1875</v>
@@ -18850,7 +18942,7 @@
         <v>80</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P31" s="1">
         <v>1</v>
@@ -18871,7 +18963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -18908,11 +19000,15 @@
       <c r="N32" s="12">
         <v>89.9</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="P32" s="11">
         <v>0.6</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="R32" s="12">
         <v>1.2</v>
       </c>
@@ -18941,6 +19037,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -18990,7 +19095,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11f18feb37c278a512788b2e5a06b2f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d97308c79b2bb5835a55e257627f43a5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19291,7 +19396,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -19311,61 +19416,18 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8CFFB9C-5BF3-4E75-98BC-CA402D6A7803}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0735E05-AA47-4CB1-8F78-A5DCDFCAE82D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F626FFE-9A60-4470-A1D9-DAB6C8577494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
-    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
-    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8CFFB9C-5BF3-4E75-98BC-CA402D6A7803}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36E91C4E-39C1-416D-AB55-756AF4802545}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
-    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
-    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F626FFE-9A60-4470-A1D9-DAB6C8577494}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0735E05-AA47-4CB1-8F78-A5DCDFCAE82D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36E91C4E-39C1-416D-AB55-756AF4802545}"/>
 </file>